--- a/RPL_V2/xlsx/cup_f.xlsx
+++ b/RPL_V2/xlsx/cup_f.xlsx
@@ -2060,6 +2060,9 @@
       </c>
     </row>
     <row r="20" spans="1:17">
+      <c r="A20">
+        <v>2</v>
+      </c>
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -2070,7 +2073,7 @@
         <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
         <v>92</v>
